--- a/Templates-V2/Other_Stationary.xlsx
+++ b/Templates-V2/Other_Stationary.xlsx
@@ -5,10 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope 2\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\OneDrive\Desktop\Scope2\Batch-input-Page-main\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59107F4B-EE98-40D5-ABCC-CD440F52BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBA854E-C93F-468D-818B-E340763B38E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rHVrYI3bgKGQjpFf3QAATB0WvI4XHH0QFSumSO51uXtFxLa8mtgCfdAgpVvr+R6qrgEB/cQF8Wn1KzWyDdCYaQ==" workbookSaltValue="QRUbolnlTddZLuaIZQ/Yzg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B90340E8-3132-47F1-8C59-7534E0F363F4}"/>
   </bookViews>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="130">
   <si>
     <t>Asset Name</t>
   </si>
@@ -416,19 +417,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>reason 1</t>
-  </si>
-  <si>
-    <t>reason 2</t>
-  </si>
-  <si>
     <t>company</t>
-  </si>
-  <si>
-    <t>company1</t>
-  </si>
-  <si>
-    <t>company2</t>
   </si>
   <si>
     <t>The fiscal year for which the data is being reported, e.g., 2021</t>
@@ -723,8 +712,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}" name="Table1" displayName="Table1" ref="A1:L1048575" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:L1048575" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}" name="Table1" displayName="Table1" ref="A1:L1048573" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:L1048573" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3465AEBF-DB53-4E8F-B398-290F8549F2D3}" name="Asset Name" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{814901E3-70D6-4D2E-91FF-277568A840AF}" name="From Date " dataDxfId="12"/>
@@ -1060,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895BCA54-A086-4B7A-8A52-2DB710DB3393}">
-  <dimension ref="A1:L794"/>
+  <dimension ref="A1:L792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1124,13 +1113,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>115</v>
@@ -1159,7 +1148,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="13">
         <v>44927</v>
@@ -1171,10 +1160,10 @@
         <v>2023</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>5</v>
@@ -1196,80 +1185,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="13">
-        <v>44927</v>
-      </c>
-      <c r="C4" s="13">
-        <v>45261</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>500</v>
-      </c>
-      <c r="I4" s="1">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="13">
-        <v>44927</v>
-      </c>
-      <c r="C5" s="13">
-        <v>45261</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>600</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G6" s="18"/>
@@ -3632,90 +3551,81 @@
     <row r="792" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G792" s="18"/>
     </row>
-    <row r="793" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G793" s="18"/>
-    </row>
-    <row r="794" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G794" s="18"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+5Lp0+NgrtV7EYkaEsb88hIyCyoPsEnBdY7v4K/IqVLpjj3OQbbVPrCdU7V3LZJ1mC3W2KfLvF4CQelT8/DkNw==" saltValue="3UCcx8FyICGj9OtGFan8Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s1jFKsDL6gwhijXC9jLaDur8vA3VGRRXsKuCpsrPdpkVHfFVFCvxvSN3sD0ViqOnEu755QRIOMPdg7tcYDzb+Q==" saltValue="PAl+/3Q0NZx+sIO7Foi4qA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="H3:H1048575">
+  <conditionalFormatting sqref="H3:H1048573">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G3 &lt;&gt; "Consumption"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J1048575">
+  <conditionalFormatting sqref="I3:J1048573">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G3 &lt;&gt;"Total Spend"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048575" xr:uid="{C7CC1D6D-3C2F-45F4-A787-F6F282FB74CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G793:G1048576" xr:uid="{8887B527-AD71-4AA6-9E8C-41E0CC631C6F}">
+      <formula1>"Consumption ,Total Spend"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{CB2BD9D3-D5D0-4556-BD08-B2C391C19A36}">
+      <formula1>"Other Stationary"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D1048576 D4:D12" xr:uid="{707ABCD1-741B-4490-AC7E-7E8606335D2F}">
+      <formula1>2020</formula1>
+    </dataValidation>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048573" xr:uid="{99120922-5D63-41A5-962A-EA4E975FC8B5}">
+      <formula1>$G4 = "Consumption "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{7E4FD2D8-EB2F-40CA-9501-F9A1226A2208}">
+      <formula1>Fuel_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{11DE9A6A-4CC3-4202-915B-1F89884DA488}">
+      <formula1>Dyn_Fuel_unit</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048573" xr:uid="{C7CC1D6D-3C2F-45F4-A787-F6F282FB74CD}">
       <formula1>"estimated, actual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G795:G1048576" xr:uid="{8887B527-AD71-4AA6-9E8C-41E0CC631C6F}">
-      <formula1>"Consumption ,Total Spend"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15" xr:uid="{CB2BD9D3-D5D0-4556-BD08-B2C391C19A36}">
-      <formula1>"Other Stationary"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D14 D16:D1048576" xr:uid="{707ABCD1-741B-4490-AC7E-7E8606335D2F}">
-      <formula1>2020</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1048575" xr:uid="{99120922-5D63-41A5-962A-EA4E975FC8B5}">
-      <formula1>$G6 = "Consumption "</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048575" xr:uid="{CDBBD6A0-B7D0-4DBB-947A-0E05912ED468}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048573" xr:uid="{CDBBD6A0-B7D0-4DBB-947A-0E05912ED468}">
       <formula1>$G4 ="Total Spend"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{7E4FD2D8-EB2F-40CA-9501-F9A1226A2208}">
-      <formula1>Fuel_type</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F5" xr:uid="{11DE9A6A-4CC3-4202-915B-1F89884DA488}">
-      <formula1>Dyn_Fuel_unit</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="I5" listDataValidation="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01354CA1-252A-42E9-9947-A32AE2FEDBB8}">
+          <x14:formula1>
+            <xm:f>data!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G793:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD88F57A-BE1D-4A47-BC6F-BCA5768FB1F5}">
+          <x14:formula1>
+            <xm:f>data!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1335ECFC-D45A-41BA-9CEB-69E5E098606A}">
+          <x14:formula1>
+            <xm:f>data!$A$2:$A$397</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6184F25-3B8B-41FD-97B6-33F61179DD7D}">
           <x14:formula1>
             <xm:f>data!$C$2:$C$141</xm:f>
           </x14:formula1>
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01354CA1-252A-42E9-9947-A32AE2FEDBB8}">
-          <x14:formula1>
-            <xm:f>data!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G795:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD88F57A-BE1D-4A47-BC6F-BCA5768FB1F5}">
-          <x14:formula1>
-            <xm:f>data!$B$2:$B$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>F6:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1335ECFC-D45A-41BA-9CEB-69E5E098606A}">
-          <x14:formula1>
-            <xm:f>data!$A$2:$A$397</xm:f>
-          </x14:formula1>
-          <xm:sqref>E6:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A604B87-845F-4D88-9083-9ACD8569DAFE}">
           <x14:formula1>
             <xm:f>data!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G794</xm:sqref>
+          <xm:sqref>G3:G792</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Templates-V2/Other_Stationary.xlsx
+++ b/Templates-V2/Other_Stationary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\OneDrive\Desktop\Scope2\Batch-input-Page-main\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope-2\Templates-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBA854E-C93F-468D-818B-E340763B38E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rHVrYI3bgKGQjpFf3QAATB0WvI4XHH0QFSumSO51uXtFxLa8mtgCfdAgpVvr+R6qrgEB/cQF8Wn1KzWyDdCYaQ==" workbookSaltValue="QRUbolnlTddZLuaIZQ/Yzg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C78BE-9AAF-4371-8850-54ADE546314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="l666lRWQlF9s/Q7vY2o0r8OzUEYyq7xzKWBLh+5weEyEqY/XPMHjoNmm1GU8nQS5C8ykD4uuc3F4rFNAjPhyFA==" workbookSaltValue="5c1gt4L7FN/inqh2FTH3FQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B90340E8-3132-47F1-8C59-7534E0F363F4}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$C$180</definedName>
-    <definedName name="Dyn_Fuel_unit">OFFSET(data!$B$2, MATCH('Other Stationary'!$E1, data!$A:$A, 0)-1, 0, COUNTIF(data!$A:$A, 'Other Stationary'!$E1), 1)</definedName>
+    <definedName name="Dyn_Fuel_unit">OFFSET(data!$B$2, MATCH('Other Stationary'!$C1, data!$A:$A, 0)-1, 0, COUNTIF(data!$A:$A, 'Other Stationary'!$C1), 1)</definedName>
     <definedName name="Fuel_type">OFFSET(data!$A$2, 0, 0, COUNTA(data!$A:$A)-1, 1)</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -423,16 +423,16 @@
     <t>The fiscal year for which the data is being reported, e.g., 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">From Date </t>
-  </si>
-  <si>
-    <t>To Date</t>
-  </si>
-  <si>
     <t>Starting date</t>
   </si>
   <si>
     <t>Ending date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t>To</t>
   </si>
 </sst>
 </file>
@@ -635,6 +635,12 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
       </font>
@@ -653,12 +659,6 @@
           <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -716,17 +716,17 @@
   <autoFilter ref="A1:L1048573" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3465AEBF-DB53-4E8F-B398-290F8549F2D3}" name="Asset Name" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{814901E3-70D6-4D2E-91FF-277568A840AF}" name="From Date " dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{A43E8940-DF7D-416C-90DF-0BBC315050C1}" name="To Date" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A7C3D773-3F25-4413-BD94-0738DEBD9568}" name="Reporting Year" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C60F4906-DDD5-415C-9640-3F1B2885E783}" name="Fuel Type" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{031DD412-8CCC-49BD-BB68-E7077679AF4F}" name="Fuel Unit" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3E46BEE1-FE79-4978-9918-271731F0E7E8}" name="Value Type" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A9AD8660-9C04-49EF-993F-5BBFC5E3A8DA}" name="Consumption" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{EA8DE465-C0AC-4976-B3D2-ACD6B65FFA39}" name="Total Spend" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B32CDEC6-1E00-409A-B83D-1D01579216E9}" name="Currency" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C99D61F2-C05A-4342-AC43-07C93108F706}" name="Actual/Estimated" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{58B1DECA-39B0-40F9-94DF-29B52A2DA1C6}" name="Assumption basis" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A7C3D773-3F25-4413-BD94-0738DEBD9568}" name="Reporting Year" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C60F4906-DDD5-415C-9640-3F1B2885E783}" name="Fuel Type" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{031DD412-8CCC-49BD-BB68-E7077679AF4F}" name="Fuel Unit" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{3E46BEE1-FE79-4978-9918-271731F0E7E8}" name="Value Type" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A9AD8660-9C04-49EF-993F-5BBFC5E3A8DA}" name="Consumption" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{EA8DE465-C0AC-4976-B3D2-ACD6B65FFA39}" name="Total Spend" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B32CDEC6-1E00-409A-B83D-1D01579216E9}" name="Currency" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{C99D61F2-C05A-4342-AC43-07C93108F706}" name="Actual/Estimated" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{58B1DECA-39B0-40F9-94DF-29B52A2DA1C6}" name="Assumption basis" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{48A718DB-A91C-48FC-B3E1-D82A29DB66E5}" name="From " dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{8FF56034-9674-4C59-B8B2-CC43D52CCB34}" name="To" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1051,22 +1051,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895BCA54-A086-4B7A-8A52-2DB710DB3393}">
   <dimension ref="A1:L792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" style="16" customWidth="1"/>
-    <col min="2" max="3" width="21.21875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.21875" style="17" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1075,37 +1075,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -1113,2481 +1113,2481 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="13">
         <v>44927</v>
       </c>
-      <c r="C3" s="13">
+      <c r="L3" s="13">
         <v>45261</v>
       </c>
-      <c r="D3" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G65" s="18"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G67" s="18"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G68" s="18"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G69" s="18"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G70" s="18"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G71" s="18"/>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G74" s="18"/>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G75" s="18"/>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G77" s="18"/>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G78" s="18"/>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G79" s="18"/>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G80" s="18"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G81" s="18"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G82" s="18"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G83" s="18"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G84" s="18"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G87" s="18"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G88" s="18"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G91" s="18"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G93" s="18"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G94" s="18"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G95" s="18"/>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G96" s="18"/>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G97" s="18"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G98" s="18"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G99" s="18"/>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G100" s="18"/>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G101" s="18"/>
-    </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G102" s="18"/>
-    </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G103" s="18"/>
-    </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G104" s="18"/>
-    </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G105" s="18"/>
-    </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G106" s="18"/>
-    </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G107" s="18"/>
-    </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G108" s="18"/>
-    </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G109" s="18"/>
-    </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G110" s="18"/>
-    </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G111" s="18"/>
-    </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G112" s="18"/>
-    </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G113" s="18"/>
-    </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G114" s="18"/>
-    </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G115" s="18"/>
-    </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G116" s="18"/>
-    </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G117" s="18"/>
-    </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G118" s="18"/>
-    </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G119" s="18"/>
-    </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G120" s="18"/>
-    </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G121" s="18"/>
-    </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G122" s="18"/>
-    </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G123" s="18"/>
-    </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G124" s="18"/>
-    </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G125" s="18"/>
-    </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G126" s="18"/>
-    </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G127" s="18"/>
-    </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G128" s="18"/>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G129" s="18"/>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G130" s="18"/>
-    </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G131" s="18"/>
-    </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G132" s="18"/>
-    </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G133" s="18"/>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G134" s="18"/>
-    </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G135" s="18"/>
-    </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G136" s="18"/>
-    </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G137" s="18"/>
-    </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G138" s="18"/>
-    </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G139" s="18"/>
-    </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G140" s="18"/>
-    </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G141" s="18"/>
-    </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G142" s="18"/>
-    </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G143" s="18"/>
-    </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G144" s="18"/>
-    </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G145" s="18"/>
-    </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G146" s="18"/>
-    </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G147" s="18"/>
-    </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G148" s="18"/>
-    </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G149" s="18"/>
-    </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G150" s="18"/>
-    </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G151" s="18"/>
-    </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G152" s="18"/>
-    </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G153" s="18"/>
-    </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G154" s="18"/>
-    </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G155" s="18"/>
-    </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G156" s="18"/>
-    </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G157" s="18"/>
-    </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G158" s="18"/>
-    </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G159" s="18"/>
-    </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G160" s="18"/>
-    </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G161" s="18"/>
-    </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G162" s="18"/>
-    </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G163" s="18"/>
-    </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G164" s="18"/>
-    </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G165" s="18"/>
-    </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G166" s="18"/>
-    </row>
-    <row r="167" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G167" s="18"/>
-    </row>
-    <row r="168" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G168" s="18"/>
-    </row>
-    <row r="169" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G169" s="18"/>
-    </row>
-    <row r="170" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G170" s="18"/>
-    </row>
-    <row r="171" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G171" s="18"/>
-    </row>
-    <row r="172" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G172" s="18"/>
-    </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G173" s="18"/>
-    </row>
-    <row r="174" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G174" s="18"/>
-    </row>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G175" s="18"/>
-    </row>
-    <row r="176" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G176" s="18"/>
-    </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G177" s="18"/>
-    </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G178" s="18"/>
-    </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G179" s="18"/>
-    </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G180" s="18"/>
-    </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G181" s="18"/>
-    </row>
-    <row r="182" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G182" s="18"/>
-    </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G183" s="18"/>
-    </row>
-    <row r="184" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G184" s="18"/>
-    </row>
-    <row r="185" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G185" s="18"/>
-    </row>
-    <row r="186" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G186" s="18"/>
-    </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G187" s="18"/>
-    </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G188" s="18"/>
-    </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G189" s="18"/>
-    </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G190" s="18"/>
-    </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G191" s="18"/>
-    </row>
-    <row r="192" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G192" s="18"/>
-    </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G193" s="18"/>
-    </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G194" s="18"/>
-    </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G195" s="18"/>
-    </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G196" s="18"/>
-    </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G197" s="18"/>
-    </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G198" s="18"/>
-    </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G199" s="18"/>
-    </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G200" s="18"/>
-    </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G201" s="18"/>
-    </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G202" s="18"/>
-    </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G203" s="18"/>
-    </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G204" s="18"/>
-    </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G205" s="18"/>
-    </row>
-    <row r="206" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G206" s="18"/>
-    </row>
-    <row r="207" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G207" s="18"/>
-    </row>
-    <row r="208" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G208" s="18"/>
-    </row>
-    <row r="209" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G209" s="18"/>
-    </row>
-    <row r="210" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G210" s="18"/>
-    </row>
-    <row r="211" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G211" s="18"/>
-    </row>
-    <row r="212" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G212" s="18"/>
-    </row>
-    <row r="213" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G213" s="18"/>
-    </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G214" s="18"/>
-    </row>
-    <row r="215" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G215" s="18"/>
-    </row>
-    <row r="216" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G216" s="18"/>
-    </row>
-    <row r="217" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G217" s="18"/>
-    </row>
-    <row r="218" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G218" s="18"/>
-    </row>
-    <row r="219" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G219" s="18"/>
-    </row>
-    <row r="220" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G220" s="18"/>
-    </row>
-    <row r="221" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G221" s="18"/>
-    </row>
-    <row r="222" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G222" s="18"/>
-    </row>
-    <row r="223" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G223" s="18"/>
-    </row>
-    <row r="224" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G224" s="18"/>
-    </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G225" s="18"/>
-    </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G226" s="18"/>
-    </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G227" s="18"/>
-    </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G228" s="18"/>
-    </row>
-    <row r="229" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G229" s="18"/>
-    </row>
-    <row r="230" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G230" s="18"/>
-    </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G231" s="18"/>
-    </row>
-    <row r="232" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G232" s="18"/>
-    </row>
-    <row r="233" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G233" s="18"/>
-    </row>
-    <row r="234" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G234" s="18"/>
-    </row>
-    <row r="235" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G235" s="18"/>
-    </row>
-    <row r="236" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G236" s="18"/>
-    </row>
-    <row r="237" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G237" s="18"/>
-    </row>
-    <row r="238" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G238" s="18"/>
-    </row>
-    <row r="239" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G239" s="18"/>
-    </row>
-    <row r="240" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G240" s="18"/>
-    </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G241" s="18"/>
-    </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G242" s="18"/>
-    </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G243" s="18"/>
-    </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G244" s="18"/>
-    </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G245" s="18"/>
-    </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G246" s="18"/>
-    </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G247" s="18"/>
-    </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G248" s="18"/>
-    </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G249" s="18"/>
-    </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G250" s="18"/>
-    </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G251" s="18"/>
-    </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G252" s="18"/>
-    </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G253" s="18"/>
-    </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G254" s="18"/>
-    </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G255" s="18"/>
-    </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G256" s="18"/>
-    </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G257" s="18"/>
-    </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G258" s="18"/>
-    </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G259" s="18"/>
-    </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G260" s="18"/>
-    </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G261" s="18"/>
-    </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G262" s="18"/>
-    </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G263" s="18"/>
-    </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G264" s="18"/>
-    </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G265" s="18"/>
-    </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G266" s="18"/>
-    </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G267" s="18"/>
-    </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G268" s="18"/>
-    </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G269" s="18"/>
-    </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G270" s="18"/>
-    </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G271" s="18"/>
-    </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G272" s="18"/>
-    </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G273" s="18"/>
-    </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G274" s="18"/>
-    </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G275" s="18"/>
-    </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G276" s="18"/>
-    </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G277" s="18"/>
-    </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G278" s="18"/>
-    </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G279" s="18"/>
-    </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G280" s="18"/>
-    </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G281" s="18"/>
-    </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G282" s="18"/>
-    </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G283" s="18"/>
-    </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G284" s="18"/>
-    </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G285" s="18"/>
-    </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G286" s="18"/>
-    </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G287" s="18"/>
-    </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G288" s="18"/>
-    </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G289" s="18"/>
-    </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G290" s="18"/>
-    </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G291" s="18"/>
-    </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G292" s="18"/>
-    </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G293" s="18"/>
-    </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G294" s="18"/>
-    </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G295" s="18"/>
-    </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G296" s="18"/>
-    </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G297" s="18"/>
-    </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G298" s="18"/>
-    </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G299" s="18"/>
-    </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G300" s="18"/>
-    </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G301" s="18"/>
-    </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G302" s="18"/>
-    </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G303" s="18"/>
-    </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G304" s="18"/>
-    </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G305" s="18"/>
-    </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G306" s="18"/>
-    </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G307" s="18"/>
-    </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G308" s="18"/>
-    </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G309" s="18"/>
-    </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G310" s="18"/>
-    </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G311" s="18"/>
-    </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G312" s="18"/>
-    </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G313" s="18"/>
-    </row>
-    <row r="314" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G314" s="18"/>
-    </row>
-    <row r="315" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G315" s="18"/>
-    </row>
-    <row r="316" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G316" s="18"/>
-    </row>
-    <row r="317" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G317" s="18"/>
-    </row>
-    <row r="318" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G318" s="18"/>
-    </row>
-    <row r="319" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G319" s="18"/>
-    </row>
-    <row r="320" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G320" s="18"/>
-    </row>
-    <row r="321" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G321" s="18"/>
-    </row>
-    <row r="322" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G322" s="18"/>
-    </row>
-    <row r="323" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G323" s="18"/>
-    </row>
-    <row r="324" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G324" s="18"/>
-    </row>
-    <row r="325" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G325" s="18"/>
-    </row>
-    <row r="326" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G326" s="18"/>
-    </row>
-    <row r="327" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G327" s="18"/>
-    </row>
-    <row r="328" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G328" s="18"/>
-    </row>
-    <row r="329" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G329" s="18"/>
-    </row>
-    <row r="330" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G330" s="18"/>
-    </row>
-    <row r="331" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G331" s="18"/>
-    </row>
-    <row r="332" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G332" s="18"/>
-    </row>
-    <row r="333" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G333" s="18"/>
-    </row>
-    <row r="334" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G334" s="18"/>
-    </row>
-    <row r="335" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G335" s="18"/>
-    </row>
-    <row r="336" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G336" s="18"/>
-    </row>
-    <row r="337" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G337" s="18"/>
-    </row>
-    <row r="338" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G338" s="18"/>
-    </row>
-    <row r="339" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G339" s="18"/>
-    </row>
-    <row r="340" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G340" s="18"/>
-    </row>
-    <row r="341" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G341" s="18"/>
-    </row>
-    <row r="342" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G342" s="18"/>
-    </row>
-    <row r="343" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G343" s="18"/>
-    </row>
-    <row r="344" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G344" s="18"/>
-    </row>
-    <row r="345" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G345" s="18"/>
-    </row>
-    <row r="346" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G346" s="18"/>
-    </row>
-    <row r="347" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G347" s="18"/>
-    </row>
-    <row r="348" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G348" s="18"/>
-    </row>
-    <row r="349" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G349" s="18"/>
-    </row>
-    <row r="350" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G350" s="18"/>
-    </row>
-    <row r="351" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G351" s="18"/>
-    </row>
-    <row r="352" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G352" s="18"/>
-    </row>
-    <row r="353" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G353" s="18"/>
-    </row>
-    <row r="354" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G354" s="18"/>
-    </row>
-    <row r="355" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G355" s="18"/>
-    </row>
-    <row r="356" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G356" s="18"/>
-    </row>
-    <row r="357" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G357" s="18"/>
-    </row>
-    <row r="358" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G358" s="18"/>
-    </row>
-    <row r="359" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G359" s="18"/>
-    </row>
-    <row r="360" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G360" s="18"/>
-    </row>
-    <row r="361" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G361" s="18"/>
-    </row>
-    <row r="362" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G362" s="18"/>
-    </row>
-    <row r="363" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G363" s="18"/>
-    </row>
-    <row r="364" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G364" s="18"/>
-    </row>
-    <row r="365" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G365" s="18"/>
-    </row>
-    <row r="366" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G366" s="18"/>
-    </row>
-    <row r="367" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G367" s="18"/>
-    </row>
-    <row r="368" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G368" s="18"/>
-    </row>
-    <row r="369" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G369" s="18"/>
-    </row>
-    <row r="370" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G370" s="18"/>
-    </row>
-    <row r="371" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G371" s="18"/>
-    </row>
-    <row r="372" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G372" s="18"/>
-    </row>
-    <row r="373" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G373" s="18"/>
-    </row>
-    <row r="374" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G374" s="18"/>
-    </row>
-    <row r="375" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G375" s="18"/>
-    </row>
-    <row r="376" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G376" s="18"/>
-    </row>
-    <row r="377" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G377" s="18"/>
-    </row>
-    <row r="378" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G378" s="18"/>
-    </row>
-    <row r="379" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G379" s="18"/>
-    </row>
-    <row r="380" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G380" s="18"/>
-    </row>
-    <row r="381" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G381" s="18"/>
-    </row>
-    <row r="382" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G382" s="18"/>
-    </row>
-    <row r="383" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G383" s="18"/>
-    </row>
-    <row r="384" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G384" s="18"/>
-    </row>
-    <row r="385" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G385" s="18"/>
-    </row>
-    <row r="386" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G386" s="18"/>
-    </row>
-    <row r="387" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G387" s="18"/>
-    </row>
-    <row r="388" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G388" s="18"/>
-    </row>
-    <row r="389" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G389" s="18"/>
-    </row>
-    <row r="390" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G390" s="18"/>
-    </row>
-    <row r="391" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G391" s="18"/>
-    </row>
-    <row r="392" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G392" s="18"/>
-    </row>
-    <row r="393" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G393" s="18"/>
-    </row>
-    <row r="394" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G394" s="18"/>
-    </row>
-    <row r="395" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G395" s="18"/>
-    </row>
-    <row r="396" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G396" s="18"/>
-    </row>
-    <row r="397" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G397" s="18"/>
-    </row>
-    <row r="398" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G398" s="18"/>
-    </row>
-    <row r="399" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G399" s="18"/>
-    </row>
-    <row r="400" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G400" s="18"/>
-    </row>
-    <row r="401" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G401" s="18"/>
-    </row>
-    <row r="402" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G402" s="18"/>
-    </row>
-    <row r="403" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G403" s="18"/>
-    </row>
-    <row r="404" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G404" s="18"/>
-    </row>
-    <row r="405" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G405" s="18"/>
-    </row>
-    <row r="406" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G406" s="18"/>
-    </row>
-    <row r="407" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G407" s="18"/>
-    </row>
-    <row r="408" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G408" s="18"/>
-    </row>
-    <row r="409" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G409" s="18"/>
-    </row>
-    <row r="410" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G410" s="18"/>
-    </row>
-    <row r="411" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G411" s="18"/>
-    </row>
-    <row r="412" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G412" s="18"/>
-    </row>
-    <row r="413" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G413" s="18"/>
-    </row>
-    <row r="414" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G414" s="18"/>
-    </row>
-    <row r="415" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G415" s="18"/>
-    </row>
-    <row r="416" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G416" s="18"/>
-    </row>
-    <row r="417" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G417" s="18"/>
-    </row>
-    <row r="418" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G418" s="18"/>
-    </row>
-    <row r="419" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G419" s="18"/>
-    </row>
-    <row r="420" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G420" s="18"/>
-    </row>
-    <row r="421" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G421" s="18"/>
-    </row>
-    <row r="422" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G422" s="18"/>
-    </row>
-    <row r="423" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G423" s="18"/>
-    </row>
-    <row r="424" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G424" s="18"/>
-    </row>
-    <row r="425" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G425" s="18"/>
-    </row>
-    <row r="426" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G426" s="18"/>
-    </row>
-    <row r="427" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G427" s="18"/>
-    </row>
-    <row r="428" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G428" s="18"/>
-    </row>
-    <row r="429" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G429" s="18"/>
-    </row>
-    <row r="430" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G430" s="18"/>
-    </row>
-    <row r="431" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G431" s="18"/>
-    </row>
-    <row r="432" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G432" s="18"/>
-    </row>
-    <row r="433" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G433" s="18"/>
-    </row>
-    <row r="434" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G434" s="18"/>
-    </row>
-    <row r="435" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G435" s="18"/>
-    </row>
-    <row r="436" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G436" s="18"/>
-    </row>
-    <row r="437" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G437" s="18"/>
-    </row>
-    <row r="438" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G438" s="18"/>
-    </row>
-    <row r="439" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G439" s="18"/>
-    </row>
-    <row r="440" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G440" s="18"/>
-    </row>
-    <row r="441" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G441" s="18"/>
-    </row>
-    <row r="442" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G442" s="18"/>
-    </row>
-    <row r="443" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G443" s="18"/>
-    </row>
-    <row r="444" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G444" s="18"/>
-    </row>
-    <row r="445" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G445" s="18"/>
-    </row>
-    <row r="446" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G446" s="18"/>
-    </row>
-    <row r="447" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G447" s="18"/>
-    </row>
-    <row r="448" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G448" s="18"/>
-    </row>
-    <row r="449" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G449" s="18"/>
-    </row>
-    <row r="450" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G450" s="18"/>
-    </row>
-    <row r="451" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G451" s="18"/>
-    </row>
-    <row r="452" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G452" s="18"/>
-    </row>
-    <row r="453" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G453" s="18"/>
-    </row>
-    <row r="454" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G454" s="18"/>
-    </row>
-    <row r="455" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G455" s="18"/>
-    </row>
-    <row r="456" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G456" s="18"/>
-    </row>
-    <row r="457" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G457" s="18"/>
-    </row>
-    <row r="458" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G458" s="18"/>
-    </row>
-    <row r="459" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G459" s="18"/>
-    </row>
-    <row r="460" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G460" s="18"/>
-    </row>
-    <row r="461" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G461" s="18"/>
-    </row>
-    <row r="462" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G462" s="18"/>
-    </row>
-    <row r="463" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G463" s="18"/>
-    </row>
-    <row r="464" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G464" s="18"/>
-    </row>
-    <row r="465" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G465" s="18"/>
-    </row>
-    <row r="466" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G466" s="18"/>
-    </row>
-    <row r="467" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G467" s="18"/>
-    </row>
-    <row r="468" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G468" s="18"/>
-    </row>
-    <row r="469" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G469" s="18"/>
-    </row>
-    <row r="470" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G470" s="18"/>
-    </row>
-    <row r="471" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G471" s="18"/>
-    </row>
-    <row r="472" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G472" s="18"/>
-    </row>
-    <row r="473" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G473" s="18"/>
-    </row>
-    <row r="474" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G474" s="18"/>
-    </row>
-    <row r="475" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G475" s="18"/>
-    </row>
-    <row r="476" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G476" s="18"/>
-    </row>
-    <row r="477" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G477" s="18"/>
-    </row>
-    <row r="478" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G478" s="18"/>
-    </row>
-    <row r="479" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G479" s="18"/>
-    </row>
-    <row r="480" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G480" s="18"/>
-    </row>
-    <row r="481" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G481" s="18"/>
-    </row>
-    <row r="482" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G482" s="18"/>
-    </row>
-    <row r="483" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G483" s="18"/>
-    </row>
-    <row r="484" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G484" s="18"/>
-    </row>
-    <row r="485" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G485" s="18"/>
-    </row>
-    <row r="486" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G486" s="18"/>
-    </row>
-    <row r="487" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G487" s="18"/>
-    </row>
-    <row r="488" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G488" s="18"/>
-    </row>
-    <row r="489" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G489" s="18"/>
-    </row>
-    <row r="490" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G490" s="18"/>
-    </row>
-    <row r="491" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G491" s="18"/>
-    </row>
-    <row r="492" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G492" s="18"/>
-    </row>
-    <row r="493" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G493" s="18"/>
-    </row>
-    <row r="494" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G494" s="18"/>
-    </row>
-    <row r="495" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G495" s="18"/>
-    </row>
-    <row r="496" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G496" s="18"/>
-    </row>
-    <row r="497" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G497" s="18"/>
-    </row>
-    <row r="498" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G498" s="18"/>
-    </row>
-    <row r="499" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G499" s="18"/>
-    </row>
-    <row r="500" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G500" s="18"/>
-    </row>
-    <row r="501" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G501" s="18"/>
-    </row>
-    <row r="502" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G502" s="18"/>
-    </row>
-    <row r="503" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G503" s="18"/>
-    </row>
-    <row r="504" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G504" s="18"/>
-    </row>
-    <row r="505" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G505" s="18"/>
-    </row>
-    <row r="506" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G506" s="18"/>
-    </row>
-    <row r="507" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G507" s="18"/>
-    </row>
-    <row r="508" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G508" s="18"/>
-    </row>
-    <row r="509" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G509" s="18"/>
-    </row>
-    <row r="510" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G510" s="18"/>
-    </row>
-    <row r="511" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G511" s="18"/>
-    </row>
-    <row r="512" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G512" s="18"/>
-    </row>
-    <row r="513" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G513" s="18"/>
-    </row>
-    <row r="514" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G514" s="18"/>
-    </row>
-    <row r="515" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G515" s="18"/>
-    </row>
-    <row r="516" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G516" s="18"/>
-    </row>
-    <row r="517" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G517" s="18"/>
-    </row>
-    <row r="518" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G518" s="18"/>
-    </row>
-    <row r="519" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G519" s="18"/>
-    </row>
-    <row r="520" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G520" s="18"/>
-    </row>
-    <row r="521" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G521" s="18"/>
-    </row>
-    <row r="522" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G522" s="18"/>
-    </row>
-    <row r="523" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G523" s="18"/>
-    </row>
-    <row r="524" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G524" s="18"/>
-    </row>
-    <row r="525" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G525" s="18"/>
-    </row>
-    <row r="526" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G526" s="18"/>
-    </row>
-    <row r="527" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G527" s="18"/>
-    </row>
-    <row r="528" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G528" s="18"/>
-    </row>
-    <row r="529" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G529" s="18"/>
-    </row>
-    <row r="530" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G530" s="18"/>
-    </row>
-    <row r="531" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G531" s="18"/>
-    </row>
-    <row r="532" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G532" s="18"/>
-    </row>
-    <row r="533" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G533" s="18"/>
-    </row>
-    <row r="534" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G534" s="18"/>
-    </row>
-    <row r="535" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G535" s="18"/>
-    </row>
-    <row r="536" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G536" s="18"/>
-    </row>
-    <row r="537" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G537" s="18"/>
-    </row>
-    <row r="538" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G538" s="18"/>
-    </row>
-    <row r="539" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G539" s="18"/>
-    </row>
-    <row r="540" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G540" s="18"/>
-    </row>
-    <row r="541" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G541" s="18"/>
-    </row>
-    <row r="542" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G542" s="18"/>
-    </row>
-    <row r="543" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G543" s="18"/>
-    </row>
-    <row r="544" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G544" s="18"/>
-    </row>
-    <row r="545" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G545" s="18"/>
-    </row>
-    <row r="546" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G546" s="18"/>
-    </row>
-    <row r="547" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G547" s="18"/>
-    </row>
-    <row r="548" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G548" s="18"/>
-    </row>
-    <row r="549" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G549" s="18"/>
-    </row>
-    <row r="550" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G550" s="18"/>
-    </row>
-    <row r="551" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G551" s="18"/>
-    </row>
-    <row r="552" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G552" s="18"/>
-    </row>
-    <row r="553" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G553" s="18"/>
-    </row>
-    <row r="554" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G554" s="18"/>
-    </row>
-    <row r="555" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G555" s="18"/>
-    </row>
-    <row r="556" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G556" s="18"/>
-    </row>
-    <row r="557" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G557" s="18"/>
-    </row>
-    <row r="558" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G558" s="18"/>
-    </row>
-    <row r="559" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G559" s="18"/>
-    </row>
-    <row r="560" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G560" s="18"/>
-    </row>
-    <row r="561" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G561" s="18"/>
-    </row>
-    <row r="562" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G562" s="18"/>
-    </row>
-    <row r="563" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G563" s="18"/>
-    </row>
-    <row r="564" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G564" s="18"/>
-    </row>
-    <row r="565" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G565" s="18"/>
-    </row>
-    <row r="566" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G566" s="18"/>
-    </row>
-    <row r="567" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G567" s="18"/>
-    </row>
-    <row r="568" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G568" s="18"/>
-    </row>
-    <row r="569" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G569" s="18"/>
-    </row>
-    <row r="570" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G570" s="18"/>
-    </row>
-    <row r="571" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G571" s="18"/>
-    </row>
-    <row r="572" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G572" s="18"/>
-    </row>
-    <row r="573" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G573" s="18"/>
-    </row>
-    <row r="574" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G574" s="18"/>
-    </row>
-    <row r="575" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G575" s="18"/>
-    </row>
-    <row r="576" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G576" s="18"/>
-    </row>
-    <row r="577" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G577" s="18"/>
-    </row>
-    <row r="578" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G578" s="18"/>
-    </row>
-    <row r="579" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G579" s="18"/>
-    </row>
-    <row r="580" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G580" s="18"/>
-    </row>
-    <row r="581" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G581" s="18"/>
-    </row>
-    <row r="582" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G582" s="18"/>
-    </row>
-    <row r="583" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G583" s="18"/>
-    </row>
-    <row r="584" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G584" s="18"/>
-    </row>
-    <row r="585" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G585" s="18"/>
-    </row>
-    <row r="586" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G586" s="18"/>
-    </row>
-    <row r="587" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G587" s="18"/>
-    </row>
-    <row r="588" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G588" s="18"/>
-    </row>
-    <row r="589" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G589" s="18"/>
-    </row>
-    <row r="590" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G590" s="18"/>
-    </row>
-    <row r="591" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G591" s="18"/>
-    </row>
-    <row r="592" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G592" s="18"/>
-    </row>
-    <row r="593" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G593" s="18"/>
-    </row>
-    <row r="594" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G594" s="18"/>
-    </row>
-    <row r="595" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G595" s="18"/>
-    </row>
-    <row r="596" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G596" s="18"/>
-    </row>
-    <row r="597" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G597" s="18"/>
-    </row>
-    <row r="598" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G598" s="18"/>
-    </row>
-    <row r="599" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G599" s="18"/>
-    </row>
-    <row r="600" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G600" s="18"/>
-    </row>
-    <row r="601" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G601" s="18"/>
-    </row>
-    <row r="602" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G602" s="18"/>
-    </row>
-    <row r="603" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G603" s="18"/>
-    </row>
-    <row r="604" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G604" s="18"/>
-    </row>
-    <row r="605" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G605" s="18"/>
-    </row>
-    <row r="606" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G606" s="18"/>
-    </row>
-    <row r="607" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G607" s="18"/>
-    </row>
-    <row r="608" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G608" s="18"/>
-    </row>
-    <row r="609" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G609" s="18"/>
-    </row>
-    <row r="610" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G610" s="18"/>
-    </row>
-    <row r="611" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G611" s="18"/>
-    </row>
-    <row r="612" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G612" s="18"/>
-    </row>
-    <row r="613" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G613" s="18"/>
-    </row>
-    <row r="614" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G614" s="18"/>
-    </row>
-    <row r="615" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G615" s="18"/>
-    </row>
-    <row r="616" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G616" s="18"/>
-    </row>
-    <row r="617" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G617" s="18"/>
-    </row>
-    <row r="618" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G618" s="18"/>
-    </row>
-    <row r="619" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G619" s="18"/>
-    </row>
-    <row r="620" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G620" s="18"/>
-    </row>
-    <row r="621" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G621" s="18"/>
-    </row>
-    <row r="622" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G622" s="18"/>
-    </row>
-    <row r="623" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G623" s="18"/>
-    </row>
-    <row r="624" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G624" s="18"/>
-    </row>
-    <row r="625" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G625" s="18"/>
-    </row>
-    <row r="626" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G626" s="18"/>
-    </row>
-    <row r="627" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G627" s="18"/>
-    </row>
-    <row r="628" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G628" s="18"/>
-    </row>
-    <row r="629" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G629" s="18"/>
-    </row>
-    <row r="630" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G630" s="18"/>
-    </row>
-    <row r="631" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G631" s="18"/>
-    </row>
-    <row r="632" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G632" s="18"/>
-    </row>
-    <row r="633" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G633" s="18"/>
-    </row>
-    <row r="634" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G634" s="18"/>
-    </row>
-    <row r="635" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G635" s="18"/>
-    </row>
-    <row r="636" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G636" s="18"/>
-    </row>
-    <row r="637" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G637" s="18"/>
-    </row>
-    <row r="638" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G638" s="18"/>
-    </row>
-    <row r="639" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G639" s="18"/>
-    </row>
-    <row r="640" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G640" s="18"/>
-    </row>
-    <row r="641" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G641" s="18"/>
-    </row>
-    <row r="642" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G642" s="18"/>
-    </row>
-    <row r="643" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G643" s="18"/>
-    </row>
-    <row r="644" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G644" s="18"/>
-    </row>
-    <row r="645" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G645" s="18"/>
-    </row>
-    <row r="646" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G646" s="18"/>
-    </row>
-    <row r="647" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G647" s="18"/>
-    </row>
-    <row r="648" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G648" s="18"/>
-    </row>
-    <row r="649" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G649" s="18"/>
-    </row>
-    <row r="650" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G650" s="18"/>
-    </row>
-    <row r="651" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G651" s="18"/>
-    </row>
-    <row r="652" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G652" s="18"/>
-    </row>
-    <row r="653" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G653" s="18"/>
-    </row>
-    <row r="654" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G654" s="18"/>
-    </row>
-    <row r="655" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G655" s="18"/>
-    </row>
-    <row r="656" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G656" s="18"/>
-    </row>
-    <row r="657" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G657" s="18"/>
-    </row>
-    <row r="658" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G658" s="18"/>
-    </row>
-    <row r="659" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G659" s="18"/>
-    </row>
-    <row r="660" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G660" s="18"/>
-    </row>
-    <row r="661" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G661" s="18"/>
-    </row>
-    <row r="662" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G662" s="18"/>
-    </row>
-    <row r="663" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G663" s="18"/>
-    </row>
-    <row r="664" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G664" s="18"/>
-    </row>
-    <row r="665" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G665" s="18"/>
-    </row>
-    <row r="666" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G666" s="18"/>
-    </row>
-    <row r="667" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G667" s="18"/>
-    </row>
-    <row r="668" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G668" s="18"/>
-    </row>
-    <row r="669" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G669" s="18"/>
-    </row>
-    <row r="670" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G670" s="18"/>
-    </row>
-    <row r="671" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G671" s="18"/>
-    </row>
-    <row r="672" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G672" s="18"/>
-    </row>
-    <row r="673" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G673" s="18"/>
-    </row>
-    <row r="674" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G674" s="18"/>
-    </row>
-    <row r="675" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G675" s="18"/>
-    </row>
-    <row r="676" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G676" s="18"/>
-    </row>
-    <row r="677" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G677" s="18"/>
-    </row>
-    <row r="678" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G678" s="18"/>
-    </row>
-    <row r="679" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G679" s="18"/>
-    </row>
-    <row r="680" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G680" s="18"/>
-    </row>
-    <row r="681" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G681" s="18"/>
-    </row>
-    <row r="682" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G682" s="18"/>
-    </row>
-    <row r="683" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G683" s="18"/>
-    </row>
-    <row r="684" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G684" s="18"/>
-    </row>
-    <row r="685" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G685" s="18"/>
-    </row>
-    <row r="686" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G686" s="18"/>
-    </row>
-    <row r="687" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G687" s="18"/>
-    </row>
-    <row r="688" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G688" s="18"/>
-    </row>
-    <row r="689" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G689" s="18"/>
-    </row>
-    <row r="690" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G690" s="18"/>
-    </row>
-    <row r="691" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G691" s="18"/>
-    </row>
-    <row r="692" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G692" s="18"/>
-    </row>
-    <row r="693" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G693" s="18"/>
-    </row>
-    <row r="694" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G694" s="18"/>
-    </row>
-    <row r="695" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G695" s="18"/>
-    </row>
-    <row r="696" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G696" s="18"/>
-    </row>
-    <row r="697" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G697" s="18"/>
-    </row>
-    <row r="698" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G698" s="18"/>
-    </row>
-    <row r="699" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G699" s="18"/>
-    </row>
-    <row r="700" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G700" s="18"/>
-    </row>
-    <row r="701" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G701" s="18"/>
-    </row>
-    <row r="702" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G702" s="18"/>
-    </row>
-    <row r="703" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G703" s="18"/>
-    </row>
-    <row r="704" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G704" s="18"/>
-    </row>
-    <row r="705" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G705" s="18"/>
-    </row>
-    <row r="706" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G706" s="18"/>
-    </row>
-    <row r="707" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G707" s="18"/>
-    </row>
-    <row r="708" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G708" s="18"/>
-    </row>
-    <row r="709" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G709" s="18"/>
-    </row>
-    <row r="710" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G710" s="18"/>
-    </row>
-    <row r="711" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G711" s="18"/>
-    </row>
-    <row r="712" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G712" s="18"/>
-    </row>
-    <row r="713" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G713" s="18"/>
-    </row>
-    <row r="714" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G714" s="18"/>
-    </row>
-    <row r="715" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G715" s="18"/>
-    </row>
-    <row r="716" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G716" s="18"/>
-    </row>
-    <row r="717" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G717" s="18"/>
-    </row>
-    <row r="718" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G718" s="18"/>
-    </row>
-    <row r="719" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G719" s="18"/>
-    </row>
-    <row r="720" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G720" s="18"/>
-    </row>
-    <row r="721" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G721" s="18"/>
-    </row>
-    <row r="722" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G722" s="18"/>
-    </row>
-    <row r="723" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G723" s="18"/>
-    </row>
-    <row r="724" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G724" s="18"/>
-    </row>
-    <row r="725" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G725" s="18"/>
-    </row>
-    <row r="726" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G726" s="18"/>
-    </row>
-    <row r="727" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G727" s="18"/>
-    </row>
-    <row r="728" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G728" s="18"/>
-    </row>
-    <row r="729" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G729" s="18"/>
-    </row>
-    <row r="730" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G730" s="18"/>
-    </row>
-    <row r="731" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G731" s="18"/>
-    </row>
-    <row r="732" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G732" s="18"/>
-    </row>
-    <row r="733" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G733" s="18"/>
-    </row>
-    <row r="734" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G734" s="18"/>
-    </row>
-    <row r="735" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G735" s="18"/>
-    </row>
-    <row r="736" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G736" s="18"/>
-    </row>
-    <row r="737" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G737" s="18"/>
-    </row>
-    <row r="738" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G738" s="18"/>
-    </row>
-    <row r="739" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G739" s="18"/>
-    </row>
-    <row r="740" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G740" s="18"/>
-    </row>
-    <row r="741" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G741" s="18"/>
-    </row>
-    <row r="742" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G742" s="18"/>
-    </row>
-    <row r="743" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G743" s="18"/>
-    </row>
-    <row r="744" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G744" s="18"/>
-    </row>
-    <row r="745" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G745" s="18"/>
-    </row>
-    <row r="746" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G746" s="18"/>
-    </row>
-    <row r="747" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G747" s="18"/>
-    </row>
-    <row r="748" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G748" s="18"/>
-    </row>
-    <row r="749" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G749" s="18"/>
-    </row>
-    <row r="750" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G750" s="18"/>
-    </row>
-    <row r="751" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G751" s="18"/>
-    </row>
-    <row r="752" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G752" s="18"/>
-    </row>
-    <row r="753" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G753" s="18"/>
-    </row>
-    <row r="754" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G754" s="18"/>
-    </row>
-    <row r="755" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G755" s="18"/>
-    </row>
-    <row r="756" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G756" s="18"/>
-    </row>
-    <row r="757" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G757" s="18"/>
-    </row>
-    <row r="758" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G758" s="18"/>
-    </row>
-    <row r="759" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G759" s="18"/>
-    </row>
-    <row r="760" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G760" s="18"/>
-    </row>
-    <row r="761" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G761" s="18"/>
-    </row>
-    <row r="762" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G762" s="18"/>
-    </row>
-    <row r="763" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G763" s="18"/>
-    </row>
-    <row r="764" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G764" s="18"/>
-    </row>
-    <row r="765" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G765" s="18"/>
-    </row>
-    <row r="766" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G766" s="18"/>
-    </row>
-    <row r="767" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G767" s="18"/>
-    </row>
-    <row r="768" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G768" s="18"/>
-    </row>
-    <row r="769" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G769" s="18"/>
-    </row>
-    <row r="770" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G770" s="18"/>
-    </row>
-    <row r="771" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G771" s="18"/>
-    </row>
-    <row r="772" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G772" s="18"/>
-    </row>
-    <row r="773" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G773" s="18"/>
-    </row>
-    <row r="774" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G774" s="18"/>
-    </row>
-    <row r="775" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G775" s="18"/>
-    </row>
-    <row r="776" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G776" s="18"/>
-    </row>
-    <row r="777" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G777" s="18"/>
-    </row>
-    <row r="778" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G778" s="18"/>
-    </row>
-    <row r="779" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G779" s="18"/>
-    </row>
-    <row r="780" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G780" s="18"/>
-    </row>
-    <row r="781" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G781" s="18"/>
-    </row>
-    <row r="782" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G782" s="18"/>
-    </row>
-    <row r="783" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G783" s="18"/>
-    </row>
-    <row r="784" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G784" s="18"/>
-    </row>
-    <row r="785" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G785" s="18"/>
-    </row>
-    <row r="786" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G786" s="18"/>
-    </row>
-    <row r="787" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G787" s="18"/>
-    </row>
-    <row r="788" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G788" s="18"/>
-    </row>
-    <row r="789" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G789" s="18"/>
-    </row>
-    <row r="790" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G790" s="18"/>
-    </row>
-    <row r="791" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G791" s="18"/>
-    </row>
-    <row r="792" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G792" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="18"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="18"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="18"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="18"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="18"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="18"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="18"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="18"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="18"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="18"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E85" s="18"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="18"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="18"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="18"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="18"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="18"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="18"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="18"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="18"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="18"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="18"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="18"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="18"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="18"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="18"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="18"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E103" s="18"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E104" s="18"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="18"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="18"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E107" s="18"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E108" s="18"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E109" s="18"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="18"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="18"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E112" s="18"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="18"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="18"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="18"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="18"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="18"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="18"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="18"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="18"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E121" s="18"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="18"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="18"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="18"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="18"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E126" s="18"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E127" s="18"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E128" s="18"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="18"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="18"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E131" s="18"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="18"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E133" s="18"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E134" s="18"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E135" s="18"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E136" s="18"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="18"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="18"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="18"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="18"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="18"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E142" s="18"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E143" s="18"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E144" s="18"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="18"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="18"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="18"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E148" s="18"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E149" s="18"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" s="18"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" s="18"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E152" s="18"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="18"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E154" s="18"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E155" s="18"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E156" s="18"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E157" s="18"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="18"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E159" s="18"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E160" s="18"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="18"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="18"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="18"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E164" s="18"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="18"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E166" s="18"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="18"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="18"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E169" s="18"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="18"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E171" s="18"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E172" s="18"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="18"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="18"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="18"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="18"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="18"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="18"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="18"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="18"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="18"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="18"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="18"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="18"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="18"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="18"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="18"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E188" s="18"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="18"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="18"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="18"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="18"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="18"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E194" s="18"/>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E195" s="18"/>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E196" s="18"/>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="18"/>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E198" s="18"/>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="18"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="18"/>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="18"/>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E202" s="18"/>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E203" s="18"/>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="18"/>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="18"/>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="18"/>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="18"/>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="18"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="18"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="18"/>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E211" s="18"/>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E212" s="18"/>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E213" s="18"/>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E214" s="18"/>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="18"/>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E216" s="18"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E217" s="18"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="18"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="18"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="18"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="18"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E222" s="18"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E223" s="18"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E224" s="18"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E225" s="18"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E226" s="18"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E227" s="18"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E228" s="18"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E229" s="18"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E230" s="18"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E231" s="18"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E232" s="18"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E233" s="18"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E234" s="18"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="18"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="18"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E237" s="18"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E238" s="18"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E239" s="18"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E240" s="18"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E241" s="18"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E242" s="18"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E243" s="18"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E244" s="18"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E245" s="18"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E246" s="18"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E247" s="18"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E248" s="18"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E249" s="18"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E250" s="18"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E251" s="18"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E252" s="18"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E253" s="18"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E254" s="18"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E255" s="18"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E256" s="18"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E257" s="18"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E258" s="18"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E259" s="18"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E260" s="18"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E261" s="18"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E262" s="18"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E263" s="18"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E264" s="18"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E265" s="18"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E266" s="18"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E267" s="18"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E268" s="18"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E269" s="18"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E270" s="18"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E271" s="18"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E272" s="18"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E273" s="18"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E274" s="18"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E275" s="18"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E276" s="18"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E277" s="18"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E278" s="18"/>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E279" s="18"/>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E280" s="18"/>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E281" s="18"/>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E282" s="18"/>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E283" s="18"/>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E284" s="18"/>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E285" s="18"/>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E286" s="18"/>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E287" s="18"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E288" s="18"/>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E289" s="18"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E290" s="18"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E291" s="18"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E292" s="18"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E293" s="18"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E294" s="18"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E295" s="18"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E296" s="18"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E297" s="18"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E298" s="18"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E299" s="18"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E300" s="18"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E301" s="18"/>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E302" s="18"/>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E303" s="18"/>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E304" s="18"/>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E305" s="18"/>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E306" s="18"/>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E307" s="18"/>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E308" s="18"/>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E309" s="18"/>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E310" s="18"/>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E311" s="18"/>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E312" s="18"/>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E313" s="18"/>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E314" s="18"/>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E315" s="18"/>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E316" s="18"/>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E317" s="18"/>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E318" s="18"/>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E319" s="18"/>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E320" s="18"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E321" s="18"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E322" s="18"/>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E323" s="18"/>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E324" s="18"/>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E325" s="18"/>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E326" s="18"/>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E327" s="18"/>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E328" s="18"/>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E329" s="18"/>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E330" s="18"/>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E331" s="18"/>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E332" s="18"/>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E333" s="18"/>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E334" s="18"/>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E335" s="18"/>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E336" s="18"/>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E337" s="18"/>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E338" s="18"/>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E339" s="18"/>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E340" s="18"/>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E341" s="18"/>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E342" s="18"/>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E343" s="18"/>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E344" s="18"/>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E345" s="18"/>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E346" s="18"/>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E347" s="18"/>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E348" s="18"/>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E349" s="18"/>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E350" s="18"/>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E351" s="18"/>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E352" s="18"/>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E353" s="18"/>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E354" s="18"/>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E355" s="18"/>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E356" s="18"/>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E357" s="18"/>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E358" s="18"/>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E359" s="18"/>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E360" s="18"/>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E361" s="18"/>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E362" s="18"/>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E363" s="18"/>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E364" s="18"/>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E365" s="18"/>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E366" s="18"/>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E367" s="18"/>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E368" s="18"/>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E369" s="18"/>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E370" s="18"/>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E371" s="18"/>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E372" s="18"/>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E373" s="18"/>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E374" s="18"/>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E375" s="18"/>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E376" s="18"/>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E377" s="18"/>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E378" s="18"/>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E379" s="18"/>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E380" s="18"/>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E381" s="18"/>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E382" s="18"/>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E383" s="18"/>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E384" s="18"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E385" s="18"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E386" s="18"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E387" s="18"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E388" s="18"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E389" s="18"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E390" s="18"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E391" s="18"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E392" s="18"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E393" s="18"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E394" s="18"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E395" s="18"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E396" s="18"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E397" s="18"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E398" s="18"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E399" s="18"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E400" s="18"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E401" s="18"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E402" s="18"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E403" s="18"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E404" s="18"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E405" s="18"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E406" s="18"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E407" s="18"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E408" s="18"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E409" s="18"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E410" s="18"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E411" s="18"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E412" s="18"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E413" s="18"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E414" s="18"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E415" s="18"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E416" s="18"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E417" s="18"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E418" s="18"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E419" s="18"/>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E420" s="18"/>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E421" s="18"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E422" s="18"/>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E423" s="18"/>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E424" s="18"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E425" s="18"/>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E426" s="18"/>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E427" s="18"/>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E428" s="18"/>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E429" s="18"/>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E430" s="18"/>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E431" s="18"/>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E432" s="18"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E433" s="18"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E434" s="18"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E435" s="18"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E436" s="18"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E437" s="18"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E438" s="18"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E439" s="18"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E440" s="18"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E441" s="18"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E442" s="18"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E443" s="18"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E444" s="18"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E445" s="18"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E446" s="18"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E447" s="18"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E448" s="18"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E449" s="18"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E450" s="18"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E451" s="18"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E452" s="18"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E453" s="18"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E454" s="18"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E455" s="18"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E456" s="18"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E457" s="18"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E458" s="18"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E459" s="18"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E460" s="18"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E461" s="18"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E462" s="18"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E463" s="18"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E464" s="18"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E465" s="18"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E466" s="18"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E467" s="18"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E468" s="18"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E469" s="18"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E470" s="18"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E471" s="18"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E472" s="18"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E473" s="18"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E474" s="18"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E475" s="18"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E476" s="18"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E477" s="18"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E478" s="18"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E479" s="18"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E480" s="18"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E481" s="18"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E482" s="18"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E483" s="18"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E484" s="18"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E485" s="18"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E486" s="18"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E487" s="18"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E488" s="18"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E489" s="18"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E490" s="18"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E491" s="18"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E492" s="18"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E493" s="18"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E494" s="18"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E495" s="18"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E496" s="18"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E497" s="18"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E498" s="18"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E499" s="18"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E500" s="18"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E501" s="18"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E502" s="18"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E503" s="18"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E504" s="18"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E505" s="18"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E506" s="18"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E507" s="18"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E508" s="18"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E509" s="18"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E510" s="18"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E511" s="18"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E512" s="18"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E513" s="18"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E514" s="18"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E515" s="18"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E516" s="18"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E517" s="18"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E518" s="18"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E519" s="18"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E520" s="18"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E521" s="18"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E522" s="18"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E523" s="18"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E524" s="18"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E525" s="18"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E526" s="18"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E527" s="18"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E528" s="18"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E529" s="18"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E530" s="18"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E531" s="18"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E532" s="18"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E533" s="18"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E534" s="18"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E535" s="18"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E536" s="18"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E537" s="18"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E538" s="18"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E539" s="18"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E540" s="18"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E541" s="18"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E542" s="18"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E543" s="18"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E544" s="18"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E545" s="18"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E546" s="18"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E547" s="18"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E548" s="18"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E549" s="18"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E550" s="18"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E551" s="18"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E552" s="18"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E553" s="18"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E554" s="18"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E555" s="18"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E556" s="18"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E557" s="18"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E558" s="18"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E559" s="18"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E560" s="18"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E561" s="18"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E562" s="18"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E563" s="18"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E564" s="18"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E565" s="18"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E566" s="18"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E567" s="18"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E568" s="18"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E569" s="18"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E570" s="18"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E571" s="18"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E572" s="18"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E573" s="18"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E574" s="18"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E575" s="18"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E576" s="18"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E577" s="18"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E578" s="18"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E579" s="18"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E580" s="18"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E581" s="18"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E582" s="18"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E583" s="18"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E584" s="18"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E585" s="18"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E586" s="18"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E587" s="18"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E588" s="18"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E589" s="18"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E590" s="18"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E591" s="18"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E592" s="18"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E593" s="18"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E594" s="18"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E595" s="18"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E596" s="18"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E597" s="18"/>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E598" s="18"/>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E599" s="18"/>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E600" s="18"/>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E601" s="18"/>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E602" s="18"/>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E603" s="18"/>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E604" s="18"/>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E605" s="18"/>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E606" s="18"/>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E607" s="18"/>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E608" s="18"/>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E609" s="18"/>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E610" s="18"/>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E611" s="18"/>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E612" s="18"/>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E613" s="18"/>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E614" s="18"/>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E615" s="18"/>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E616" s="18"/>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E617" s="18"/>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E618" s="18"/>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E619" s="18"/>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E620" s="18"/>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E621" s="18"/>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E622" s="18"/>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E623" s="18"/>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E624" s="18"/>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E625" s="18"/>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E626" s="18"/>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E627" s="18"/>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E628" s="18"/>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E629" s="18"/>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E630" s="18"/>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E631" s="18"/>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E632" s="18"/>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E633" s="18"/>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E634" s="18"/>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E635" s="18"/>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E636" s="18"/>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E637" s="18"/>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E638" s="18"/>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E639" s="18"/>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E640" s="18"/>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E641" s="18"/>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E642" s="18"/>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E643" s="18"/>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E644" s="18"/>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E645" s="18"/>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E646" s="18"/>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E647" s="18"/>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E648" s="18"/>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E649" s="18"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E650" s="18"/>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E651" s="18"/>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E652" s="18"/>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E653" s="18"/>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E654" s="18"/>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E655" s="18"/>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E656" s="18"/>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E657" s="18"/>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E658" s="18"/>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E659" s="18"/>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E660" s="18"/>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E661" s="18"/>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E662" s="18"/>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E663" s="18"/>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E664" s="18"/>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E665" s="18"/>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E666" s="18"/>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E667" s="18"/>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E668" s="18"/>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E669" s="18"/>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E670" s="18"/>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E671" s="18"/>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E672" s="18"/>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E673" s="18"/>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E674" s="18"/>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E675" s="18"/>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E676" s="18"/>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E677" s="18"/>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E678" s="18"/>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E679" s="18"/>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E680" s="18"/>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E681" s="18"/>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E682" s="18"/>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E683" s="18"/>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E684" s="18"/>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E685" s="18"/>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E686" s="18"/>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E687" s="18"/>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E688" s="18"/>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E689" s="18"/>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E690" s="18"/>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E691" s="18"/>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E692" s="18"/>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E693" s="18"/>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E694" s="18"/>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E695" s="18"/>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E696" s="18"/>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E697" s="18"/>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E698" s="18"/>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E699" s="18"/>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E700" s="18"/>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E701" s="18"/>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E702" s="18"/>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E703" s="18"/>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E704" s="18"/>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E705" s="18"/>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E706" s="18"/>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E707" s="18"/>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E708" s="18"/>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E709" s="18"/>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E710" s="18"/>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E711" s="18"/>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E712" s="18"/>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E713" s="18"/>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E714" s="18"/>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E715" s="18"/>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E716" s="18"/>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E717" s="18"/>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E718" s="18"/>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E719" s="18"/>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E720" s="18"/>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E721" s="18"/>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E722" s="18"/>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E723" s="18"/>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E724" s="18"/>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E725" s="18"/>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E726" s="18"/>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E727" s="18"/>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E728" s="18"/>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E729" s="18"/>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E730" s="18"/>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E731" s="18"/>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E732" s="18"/>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E733" s="18"/>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E734" s="18"/>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E735" s="18"/>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E736" s="18"/>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E737" s="18"/>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E738" s="18"/>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E739" s="18"/>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E740" s="18"/>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E741" s="18"/>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E742" s="18"/>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E743" s="18"/>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E744" s="18"/>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E745" s="18"/>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E746" s="18"/>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E747" s="18"/>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E748" s="18"/>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E749" s="18"/>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E750" s="18"/>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E751" s="18"/>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E752" s="18"/>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E753" s="18"/>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E754" s="18"/>
+    </row>
+    <row r="755" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E755" s="18"/>
+    </row>
+    <row r="756" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E756" s="18"/>
+    </row>
+    <row r="757" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E757" s="18"/>
+    </row>
+    <row r="758" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E758" s="18"/>
+    </row>
+    <row r="759" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E759" s="18"/>
+    </row>
+    <row r="760" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E760" s="18"/>
+    </row>
+    <row r="761" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E761" s="18"/>
+    </row>
+    <row r="762" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E762" s="18"/>
+    </row>
+    <row r="763" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E763" s="18"/>
+    </row>
+    <row r="764" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E764" s="18"/>
+    </row>
+    <row r="765" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E765" s="18"/>
+    </row>
+    <row r="766" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E766" s="18"/>
+    </row>
+    <row r="767" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E767" s="18"/>
+    </row>
+    <row r="768" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E768" s="18"/>
+    </row>
+    <row r="769" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E769" s="18"/>
+    </row>
+    <row r="770" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E770" s="18"/>
+    </row>
+    <row r="771" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E771" s="18"/>
+    </row>
+    <row r="772" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E772" s="18"/>
+    </row>
+    <row r="773" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E773" s="18"/>
+    </row>
+    <row r="774" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E774" s="18"/>
+    </row>
+    <row r="775" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E775" s="18"/>
+    </row>
+    <row r="776" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E776" s="18"/>
+    </row>
+    <row r="777" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E777" s="18"/>
+    </row>
+    <row r="778" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E778" s="18"/>
+    </row>
+    <row r="779" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E779" s="18"/>
+    </row>
+    <row r="780" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E780" s="18"/>
+    </row>
+    <row r="781" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E781" s="18"/>
+    </row>
+    <row r="782" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E782" s="18"/>
+    </row>
+    <row r="783" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E783" s="18"/>
+    </row>
+    <row r="784" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E784" s="18"/>
+    </row>
+    <row r="785" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E785" s="18"/>
+    </row>
+    <row r="786" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E786" s="18"/>
+    </row>
+    <row r="787" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E787" s="18"/>
+    </row>
+    <row r="788" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E788" s="18"/>
+    </row>
+    <row r="789" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E789" s="18"/>
+    </row>
+    <row r="790" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E790" s="18"/>
+    </row>
+    <row r="791" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E791" s="18"/>
+    </row>
+    <row r="792" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E792" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s1jFKsDL6gwhijXC9jLaDur8vA3VGRRXsKuCpsrPdpkVHfFVFCvxvSN3sD0ViqOnEu755QRIOMPdg7tcYDzb+Q==" saltValue="PAl+/3Q0NZx+sIO7Foi4qA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8JZQShbsO4hScPXtZ8Q2VLCwEoT12fGh08jr8Ei+hH8hrTjnGIMnF6hZPyCIMSTbgu+jzpsCN2JRQEeNb36wsQ==" saltValue="vXL8d9JjuJeKUKwtWU+XRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="H3:H1048573">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$G3 &lt;&gt; "Consumption"</formula>
+  <conditionalFormatting sqref="F3:F1048573">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$E3 &lt;&gt; "Consumption"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J1048573">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G3 &lt;&gt;"Total Spend"</formula>
+  <conditionalFormatting sqref="G3:H1048573">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$E3 &lt;&gt;"Total Spend"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G793:G1048576" xr:uid="{8887B527-AD71-4AA6-9E8C-41E0CC631C6F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E793:E1048576" xr:uid="{8887B527-AD71-4AA6-9E8C-41E0CC631C6F}">
       <formula1>"Consumption ,Total Spend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{CB2BD9D3-D5D0-4556-BD08-B2C391C19A36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{CB2BD9D3-D5D0-4556-BD08-B2C391C19A36}">
       <formula1>"Other Stationary"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D1048576 D4:D12" xr:uid="{707ABCD1-741B-4490-AC7E-7E8606335D2F}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B1048576 B4:B12" xr:uid="{707ABCD1-741B-4490-AC7E-7E8606335D2F}">
       <formula1>2020</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048573" xr:uid="{99120922-5D63-41A5-962A-EA4E975FC8B5}">
-      <formula1>$G4 = "Consumption "</formula1>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048573" xr:uid="{99120922-5D63-41A5-962A-EA4E975FC8B5}">
+      <formula1>$E4 = "Consumption "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{7E4FD2D8-EB2F-40CA-9501-F9A1226A2208}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{7E4FD2D8-EB2F-40CA-9501-F9A1226A2208}">
       <formula1>Fuel_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{11DE9A6A-4CC3-4202-915B-1F89884DA488}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{11DE9A6A-4CC3-4202-915B-1F89884DA488}">
       <formula1>Dyn_Fuel_unit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048573" xr:uid="{C7CC1D6D-3C2F-45F4-A787-F6F282FB74CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048573" xr:uid="{C7CC1D6D-3C2F-45F4-A787-F6F282FB74CD}">
       <formula1>"estimated, actual"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048573" xr:uid="{CDBBD6A0-B7D0-4DBB-947A-0E05912ED468}">
-      <formula1>$G4 ="Total Spend"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048573" xr:uid="{CDBBD6A0-B7D0-4DBB-947A-0E05912ED468}">
+      <formula1>$E4 ="Total Spend"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3601,31 +3601,31 @@
           <x14:formula1>
             <xm:f>data!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G793:G1048576</xm:sqref>
+          <xm:sqref>E793:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD88F57A-BE1D-4A47-BC6F-BCA5768FB1F5}">
           <x14:formula1>
             <xm:f>data!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F1048576</xm:sqref>
+          <xm:sqref>D4:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1335ECFC-D45A-41BA-9CEB-69E5E098606A}">
           <x14:formula1>
             <xm:f>data!$A$2:$A$397</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E1048576</xm:sqref>
+          <xm:sqref>C4:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6184F25-3B8B-41FD-97B6-33F61179DD7D}">
           <x14:formula1>
             <xm:f>data!$C$2:$C$141</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J1048576</xm:sqref>
+          <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A604B87-845F-4D88-9083-9ACD8569DAFE}">
           <x14:formula1>
             <xm:f>data!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G792</xm:sqref>
+          <xm:sqref>E3:E792</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5238,6 +5238,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -5393,24 +5410,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82203749-B85D-47D9-AC2A-30FFFDDE5E20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D63B2C-3279-4734-94CF-73638EDFB4AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B1EE3F-384C-4322-928A-CC31B2763696}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5426,22 +5444,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82203749-B85D-47D9-AC2A-30FFFDDE5E20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D63B2C-3279-4734-94CF-73638EDFB4AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Templates-V2/Other_Stationary.xlsx
+++ b/Templates-V2/Other_Stationary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope-2\Templates-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C78BE-9AAF-4371-8850-54ADE546314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD874E5-5F44-4342-9039-1F8DC79A59B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="l666lRWQlF9s/Q7vY2o0r8OzUEYyq7xzKWBLh+5weEyEqY/XPMHjoNmm1GU8nQS5C8ykD4uuc3F4rFNAjPhyFA==" workbookSaltValue="5c1gt4L7FN/inqh2FTH3FQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B90340E8-3132-47F1-8C59-7534E0F363F4}"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="129">
   <si>
     <t>Asset Name</t>
   </si>
@@ -412,9 +412,6 @@
   </si>
   <si>
     <t>actual</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>company</t>
@@ -633,12 +630,13 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -696,6 +694,12 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4E9F0574-3189-4394-83A1-78CF5150B7F2}"/>
@@ -712,21 +716,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}" name="Table1" displayName="Table1" ref="A1:L1048573" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}" name="Table1" displayName="Table1" ref="A1:L1048573" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:L1048573" xr:uid="{BFBBB483-F796-41F3-8AB5-DF90D622F7A9}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3465AEBF-DB53-4E8F-B398-290F8549F2D3}" name="Asset Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A7C3D773-3F25-4413-BD94-0738DEBD9568}" name="Reporting Year" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C60F4906-DDD5-415C-9640-3F1B2885E783}" name="Fuel Type" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{031DD412-8CCC-49BD-BB68-E7077679AF4F}" name="Fuel Unit" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{3E46BEE1-FE79-4978-9918-271731F0E7E8}" name="Value Type" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A9AD8660-9C04-49EF-993F-5BBFC5E3A8DA}" name="Consumption" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{EA8DE465-C0AC-4976-B3D2-ACD6B65FFA39}" name="Total Spend" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{B32CDEC6-1E00-409A-B83D-1D01579216E9}" name="Currency" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{C99D61F2-C05A-4342-AC43-07C93108F706}" name="Actual/Estimated" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{58B1DECA-39B0-40F9-94DF-29B52A2DA1C6}" name="Assumption basis" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{48A718DB-A91C-48FC-B3E1-D82A29DB66E5}" name="From " dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{8FF56034-9674-4C59-B8B2-CC43D52CCB34}" name="To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3465AEBF-DB53-4E8F-B398-290F8549F2D3}" name="Asset Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A7C3D773-3F25-4413-BD94-0738DEBD9568}" name="Reporting Year" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C60F4906-DDD5-415C-9640-3F1B2885E783}" name="Fuel Type" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{031DD412-8CCC-49BD-BB68-E7077679AF4F}" name="Fuel Unit" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3E46BEE1-FE79-4978-9918-271731F0E7E8}" name="Value Type" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{A9AD8660-9C04-49EF-993F-5BBFC5E3A8DA}" name="Consumption" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{EA8DE465-C0AC-4976-B3D2-ACD6B65FFA39}" name="Total Spend" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{B32CDEC6-1E00-409A-B83D-1D01579216E9}" name="Currency" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C99D61F2-C05A-4342-AC43-07C93108F706}" name="Actual/Estimated" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{58B1DECA-39B0-40F9-94DF-29B52A2DA1C6}" name="Assumption basis" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{48A718DB-A91C-48FC-B3E1-D82A29DB66E5}" name="From " dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{8FF56034-9674-4C59-B8B2-CC43D52CCB34}" name="To" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1051,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895BCA54-A086-4B7A-8A52-2DB710DB3393}">
   <dimension ref="A1:L792"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,10 +1106,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -1113,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>115</v>
@@ -1140,15 +1144,15 @@
         <v>11</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1">
         <v>2023</v>
@@ -1174,9 +1178,7 @@
       <c r="I3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="13">
         <v>44927</v>
       </c>
@@ -3552,16 +3554,21 @@
       <c r="E792" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8JZQShbsO4hScPXtZ8Q2VLCwEoT12fGh08jr8Ei+hH8hrTjnGIMnF6hZPyCIMSTbgu+jzpsCN2JRQEeNb36wsQ==" saltValue="vXL8d9JjuJeKUKwtWU+XRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T8FMY7MX4uQ6JWQc0puLgg4KdkBw0FgyZ537jnuwSFpnbu7EHkHEE8wVNfcCKYa2xI07KJRB3hW7a7LV5BJOUw==" saltValue="e2lVlf3jkDgYKaARym4dMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:F1048573">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E3 &lt;&gt; "Consumption"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H1048573">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E3 &lt;&gt;"Total Spend"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I1 = "actual"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -5247,14 +5254,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -5410,6 +5409,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82203749-B85D-47D9-AC2A-30FFFDDE5E20}">
   <ds:schemaRefs>
@@ -5419,16 +5426,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D63B2C-3279-4734-94CF-73638EDFB4AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B1EE3F-384C-4322-928A-CC31B2763696}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5444,4 +5441,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D63B2C-3279-4734-94CF-73638EDFB4AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>